--- a/ODD/test_output/Design_results.xlsx
+++ b/ODD/test_output/Design_results.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,41 +494,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58.09938459947227</v>
+        <v>55.51667173837893</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.240736765585893</v>
+        <v>5.363380027065432</v>
       </c>
       <c r="F2" t="n">
-        <v>9.800889672088658</v>
+        <v>6.04943227269905</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>TGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>GAACATGCGCGACCTGAAAG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>59.73830369773299</v>
+        <v>60.17921481643259</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9533704817156371</v>
+        <v>9.75767997612968</v>
       </c>
       <c r="K2" t="n">
-        <v>1089</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="3">
@@ -537,41 +537,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58.09938459947227</v>
+        <v>55.51667173837893</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.240736765585893</v>
+        <v>5.363380027065432</v>
       </c>
       <c r="F3" t="n">
-        <v>9.800889672088658</v>
+        <v>2.503357129805692</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>TGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGAC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>GTCGCCTTCTACGGTGATCA</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>59.73830369773299</v>
+        <v>59.5453996763095</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9533704817156371</v>
+        <v>-22.75753292142625</v>
       </c>
       <c r="K3" t="n">
-        <v>1087</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4">
@@ -580,41 +580,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58.09938459947227</v>
+        <v>55.51667173837893</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.240736765585893</v>
+        <v>5.363380027065432</v>
       </c>
       <c r="F4" t="n">
-        <v>9.800889672088658</v>
+        <v>-30.19829957913251</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>TGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTG</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>CAGCCGTATCAGCATCATTACT</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>59.73830369773299</v>
+        <v>58.34236624305748</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9533704817156371</v>
+        <v>-33.87694222802281</v>
       </c>
       <c r="K4" t="n">
-        <v>1090</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="5">
@@ -623,256 +623,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
+          <t>TGGGCGAGCCGAAAAACAAATA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58.09938459947227</v>
+        <v>55.51667173837893</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.240736765585893</v>
+        <v>5.363380027065432</v>
       </c>
       <c r="F5" t="n">
-        <v>9.800889672088658</v>
+        <v>-13.02313816662411</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>TGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACG</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>CGTGTATCGGGCAATGGAAT</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>59.73830369773299</v>
+        <v>58.40680358121767</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9533704817156371</v>
+        <v>-34.12817302788949</v>
       </c>
       <c r="K5" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11.2743314450268</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CTTGGCTTCAGCAGGGTTTG</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>59.68379617005246</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-2.584998379959927</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.800889672088658</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>59.73830369773299</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9533704817156371</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-5.791950779974854</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.800889672088658</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>59.73830369773299</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9533704817156371</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-5.791950779974854</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1115</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,41 +737,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>GTGAAAACTCGACCATGCCGGAACCTTCACGCATCGCCGGAGTAATCGCCATCAGCTTGTTGTCTTTCGCTGCCGTTTCGCACAACCAGTCGCCAAAGATTTTTGAATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGCACGGCGTGGAAAGTGATCGGGTCTTTTTCTGCCGGTTCATAACCACGACCTTTTTTGGTCATGATATGCAGGAACTGCGGGCCTTTCAGGTCGCGCATGTTC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-7.680065254828605</v>
+        <v>-29.69368472761246</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9533704817156371</v>
+        <v>9.75767997612968</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.66505558919766</v>
+        <v>-6.356897228041475</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CAACACCATTAACACCCGCG</t>
+          <t>GTGAAAACTCGACCATGCCG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>GAACATGCGCGACCTGAAAG</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60.10996432023796</v>
+        <v>59.83405565007826</v>
       </c>
       <c r="J2" t="n">
-        <v>59.73830369773299</v>
+        <v>60.17921481643259</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -995,41 +780,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>CCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-7.680065254828605</v>
+        <v>-3.588477339214932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9533704817156371</v>
+        <v>-33.87694222802281</v>
       </c>
       <c r="F3" t="n">
-        <v>-30.66505558919766</v>
+        <v>-35.23141384095914</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CAACACCATTAACACCCGCG</t>
+          <t>CCGCTTGCACAAACGCTTTA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>CAGCCGTATCAGCATCATTACT</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.10996432023796</v>
+        <v>60.31743585812234</v>
       </c>
       <c r="J3" t="n">
-        <v>59.73830369773299</v>
+        <v>58.34236624305748</v>
       </c>
       <c r="K3" t="n">
-        <v>289</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4">
@@ -1038,213 +823,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
+          <t>CGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7.680065254828605</v>
+        <v>7.640175098671591</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9533704817156371</v>
+        <v>-34.12817302788949</v>
       </c>
       <c r="F4" t="n">
-        <v>-30.66505558919766</v>
+        <v>-2.004972457472149</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CAACACCATTAACACCCGCG</t>
+          <t>CGTGAGCGCTATTCATGGCT</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
+          <t>CGTGTATCGGGCAATGGAAT</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60.10996432023796</v>
+        <v>60.87764921789017</v>
       </c>
       <c r="J4" t="n">
-        <v>59.73830369773299</v>
+        <v>58.40680358121767</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAG</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-7.680065254828605</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-2.584998379959927</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-8.269396111043818</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CAACACCATTAACACCCGCG</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CTTGGCTTCAGCAGGGTTTG</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>60.10996432023796</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59.68379617005246</v>
-      </c>
-      <c r="K5" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-7.680065254828605</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9533704817156371</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-30.66505558919766</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CAACACCATTAACACCCGCG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>60.10996432023796</v>
-      </c>
-      <c r="J6" t="n">
-        <v>59.73830369773299</v>
-      </c>
-      <c r="K6" t="n">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCT</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-7.680065254828605</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9533704817156371</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-30.66505558919766</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CAACACCATTAACACCCGCG</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AGGGTTTGCTTCCAACCAGT</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.10996432023796</v>
-      </c>
-      <c r="J7" t="n">
-        <v>59.73830369773299</v>
-      </c>
-      <c r="K7" t="n">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCG</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2.443706680589116</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-51.9671254908975</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-19.216561048221</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GCTGCGTATTTTTGGGCCTC</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.1791371095448</v>
-      </c>
-      <c r="J8" t="n">
-        <v>59.4809229030995</v>
-      </c>
-      <c r="K8" t="n">
-        <v>833</v>
+        <v>1852</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,54 +912,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGG</t>
+          <t>TTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>AGCAAAGTACGCTTTGTTCATGCCGGATGCTTAAGCTTCAACCTCGGAGCG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAG</t>
+          <t>TTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCT</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GAATTCCAGGGGCGGGTTAAGTAAGGCGCTCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTC</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>597</v>
+        <v>1617</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,30 +991,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>dxs_sub_933_C_T_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>ATAGCTCGGCAAACCGCCGCTACTTTTCGGGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACTGTGGGTCACCAACGCGCACGGAAATAATTAGTTACGTCCGCGCGAC</t>
+          <t>GCCTAAATTTGATCCCTCCAGCGGTTGTTTGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAATTATTTCCGTGCGCGTTGGTGACCCACAGT</t>
+          <t>ATAGCTCGGCAAACCGCCGCTACTTTTCGGGTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCAAACAACCGCTGGAGGGATCAAATTTAGGC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1635</v>
+        <v>1980</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGT</t>
+          <t>ATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATCAAATTTAGGC</t>
         </is>
       </c>
     </row>
@@ -1439,30 +1024,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>CAACGTTATTAGATAGATAAGGAATAACCCGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GAACTGTGGGTCACCAACGCGCACGGAAATTTAGTTACGTCCGCGCGAC</t>
+          <t>TGATTTCGATAGCCATTATTCTTTTACCTCGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTC</t>
+          <t>CAACGTTATTAGATAGATAAGGAATAACCCGTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGAGGTAAAAGAATAATGGCTATCGAAATCA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1635</v>
+        <v>1980</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTC</t>
+          <t>CAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCA</t>
         </is>
       </c>
     </row>
@@ -1472,30 +1057,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pntA_promoter_sub</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>TAACCGTTCTCTTGGTATGCCAATTCGCATGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACTTAGTTACGTCCGCGCGAC</t>
+          <t>GGCGTTCTAAGGTGTTTATCCCACTATCACGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAG</t>
+          <t>TAACCGTTCTCTTGGTATGCCAATTCGCATGTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGTGATAGTGGGATAAACACCTTAGAACGCC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1635</v>
+        <v>1980</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAG</t>
+          <t>TAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCC</t>
         </is>
       </c>
     </row>
@@ -1505,189 +1090,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>Cgl1452_ins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
+          <t>TTTTTGTAGACCTGGTCAGGCGTTCACATGGTGCAAACCTTTCAAGCCGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GAACTGTGGGTCACCAACGCGCACGGAAATTTAGTTACGTCCGCGCGAC</t>
+          <t>AGCAAAGTACGCTTTGTTCATGCCGGATGCGCATCCAGTAATGAGGTAGTTGC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTTCCGTGCGCGTTGGTGACCCACAGTTC</t>
+          <t>TTTTTGTAGACCTGGTCAGGCGTTCACATGGTGCAAACCTTTCAAGCCGATCTTGCCATTGTAGGCGCCGGTGGCGCGGGATTACGTGCTGCAATTGCTGCCGCGCAGGCAAATCCAAATGCAAAAATCGCACTAATCTCAAAAGTATACCCGATGCGTAGCCATACCGTTGCTGCAGAAGGGGGCTCCGCCGCTGTCGCGCAGGATCATGACAGCTTCGAATATCACTTTCACGATACAGTAGCGGGTGGCGACTGGTTGTGTGAGCAGGATGTCGTGGATTATTTCGTCCACCACTGCCCAACCGAAATGACCCAACTGGAACTGTGGGGGTGCCCATGGAGCCGTCGCCCGGATGGTAGCGTCAACGTACGTCGCTTCGGCGGCATGAAAATCGAGCGTACCTGGTTCGCCGCCGATAAGACCGGCTTCCATATGCTGCACACGCTGTTCCAGACCTCTCTGCAATTCCCGCAGATCCAGCGTTTTGACGAACATTTCGTGCTGGATATTCTGGTTGATGATGGTCATGTTCGCGGCCTGGTAGCAATGAACATGATGGAAGGCACGCTGGTGCAGATCCGTGCTAACGCGGTCGTTATGGCTACCGGCGGTGCGGGTCGCGTTTATCGTTACAACACCAACGGCGGCATCGTTACCGGTGACGGTATGGGTATGGCGCTAAGCCACGGCGTTCCGCTGCGTGACATGGAATTCGTTCAGTATCACCCAACCGGTCTGCCAGGTTCCGGTATCCTGATGACCGAAGGCTGCCGTGGTGAAGGCGGTATTCTGGTCAACAAAAATGGCTACCGTTATCTGCAAGATTACGGCATGGGCCCGGAAACTCCGCTGGGCGAGCCGAAAAACAAATATATGGAACTGGGTCCACGCGACAAAGTTTCTCAGGCCTTCTGGCACGAATGGCGTAAAGGCAACACCATCTCCACGCCGCGTGGTGATGTGGTTTATCTCGACCTGCGTCACCTCGGCGAGAAAAAACTGCATGAACGTCTGCCGTTCATCTGCGAACTGGCGAAAGCGTACGTTGGCGTCGATCCGGTTAAAGAACCGATTCCGGTACGTCCGACCGCACACTACACCATGGGCGGTATCGAAACCGATCAGAACTGTGAAACCCGCATTAAAGGTCTGTTCGCCGTGGGTGAATGTTCCTCTGTTGGTCTGCACGGTGCAAACCGTCTGGGCTCCAACTCCCTGGCGGAACTGGTGGTCTTCGGCCGTCTGGCCGGTGAACAAGCGACAGAGCGTGCAGCAACTGCCGGTAATGGCAACGAAGCGGCAATTGAAGCGCAGGCAGCTGGCGTTGAACAACGTCTGAAAGATCTGGTTAACCAGGATGGCGGCGAAAACTGGGCGAAGATCCGCGACGAAATGGGCCTGGCAATGGAAGAAGGCTGCGGTATCTACCGTACGCCGGAACTGATGCAGAAAACCATCGACAAGCTGGCTGAGCTGCAGGAACGCTTCAAGCGCGTGCGCATCACCGACACTTCCAGCGTGTTCAACACCGACCTGCTCTACACCATTGAACTGGGCCACGGTCTGAACGTTGCTGAATGTATGGCGCACTCCGCAATGGCACGTAAAGAGTCCCGCGGCGCACACCAGCGTCTGGACGAAGGTTGCACCGAGCGTGACGACGTCAACTTCCTCAAACACACCCTCGCCTTCCGCGATGCTGATGGCACGACTCGCCTGGAGTACAGCGACGTGAAGATTACTACGCTGCCGCCAGCTAAACGCGTTTACGGTGGCGAAGCGGATGCAGCCGATAAGGCGGAAGCAGCCAATAAGAAGGAGAAGGCGAATGGCTGAGATGAAAAACCTGAAAATTGAGGTGGTGCGCTATAACCCGGAAGTCGATACCGCACCGCATAGCGCATTCTATGAAGTGCCTTATGACGCAACTACCTCATTACTGGATGCGCATCCGGCATGAACAAAGCGTACTTTGCT</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1635</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GGTCTGGCCTTCGAACTGTGGGTCACCAACTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTGGTGACCCACAGTTCGAAGGCCAGACC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1635</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACC</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAG</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1635</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GAATTCCAGGGGCGGGTTAAGTAAGGCGCTTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTC</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1635</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CTGTGGGTCACCAACGCGCACGGAAATAACTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTTATTTCCGTGCGCGTTGGTGACCCACAG</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1635</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GAATTCCAGGGGCGGGTTAAGTAAGGCGCTTTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCGCCTTACTTAACCCGCCCCTGGAATTC</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1635</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>1980</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ODD/test_output/Design_results.xlsx
+++ b/ODD/test_output/Design_results.xlsx
@@ -671,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,41 +780,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pntA_promoter_sub</t>
+          <t>aceE_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTG</t>
+          <t>AGAAGATGTTGTAAATCAAGCGCATATAAAAGCGCGGCAACTAAACGTAGAACCTGTCTTATTGAGCTTTCCGGCGAGAGTTCAATGGGACAGGTTCCAGAAAACTCAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGAAATCAAAGTACCGGACATCGGGGCTGATGAAGTTGAAATCACCGAGATCCTGGTCAAAGTGGGCGACAAAGTTGAAGCCGAACAGTCGCTGATCACCGTAGAAGGCGAC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-3.588477339214932</v>
+        <v>9.333549347603878</v>
       </c>
       <c r="E3" t="n">
-        <v>-33.87694222802281</v>
+        <v>-22.75753292142625</v>
       </c>
       <c r="F3" t="n">
-        <v>-35.23141384095914</v>
+        <v>-18.03345208828691</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CCGCTTGCACAAACGCTTTA</t>
+          <t>AGAAGATGTTGTAAATCAAGCGCA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CAGCCGTATCAGCATCATTACT</t>
+          <t>GTCGCCTTCTACGGTGATCA</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.31743585812234</v>
+        <v>59.54446661842991</v>
       </c>
       <c r="J3" t="n">
-        <v>58.34236624305748</v>
+        <v>59.5453996763095</v>
       </c>
       <c r="K3" t="n">
-        <v>391</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -823,40 +823,83 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>pntA_promoter_sub</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CCGCTTGCACAAACGCTTTATCGTCAAAACTTGCCAGTTGACCCGCGCCGCTCTCTACCGCGACGGTAAAACCCAGTTTCAGCAGCTGTTCCACTGTTTTTGGCGTTGCTGCAACACGGGTTTCATTGGTTAACCGTTCTCTTGGTATGCCAATTCGCATTATGGTACGTCCAATCTTTCTCTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCTTAGAACGCCGGATAAAGACTGATAATTGTCTTCGACGGTCGGGTAAAACGAGACATCGCCCCGGCACGAATCACTACTTAACATTAAATTAACTTATACAATTCAGTTGCTTCAGTAGTAATGATGCTGATACGGCTG</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.588477339214932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-33.87694222802281</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-35.23141384095914</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CCGCTTGCACAAACGCTTTA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CAGCCGTATCAGCATCATTACT</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>60.31743585812234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>58.34236624305748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Cgl1452_ins</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>CGTGAGCGCTATTCATGGCTCAAGAGCTAATCAGAGACGGATGACAAACGCAAAGCAGCCTGATGCGCTATGCTTATCAGGTCTACATAACCCATTAAATATATTGAACTTTAAAGATTTTTGTAGACCTGGTCAGGCGTTCACATGCGCGCCAAAAAGAGTATTGACTTCGCATCTTTTTGTACCCATAATTATTTCATTCACATCACACAGGAAAGGCCCATAATGCCGTCAAGTACGATCAATAACATGACTAATGGAGATAATCTCGCACAGATCGGCGTTGTAGGCCTAGCAGTAATGGGCTCAAACCTCGCCCGCAACTTCGCCCGCAACGGCAACACTGTCGCTGTCTACAACCGCAGCACTGACAAAACCGACAAGCTCATCGCCGATCACGGCTCCGAAGGCAACTTCATCCCTTCTGCAACCGTCGAAGAGTTCGTAGCATCCCTGGAAAAGCCACGCCGCGCCATCATCATGGTTCAGGCTGGTAACGCCACCGACGCAGTCATCAACCAGCTGGCAGATGCCATGGACGAAGGCGACATCATCATCGACGGCGGCAACGCCCTCTACACCGACACCATTCGTCGCGAGAAGGAAATCTCCGCACGCGGTCTCCACTTCGTCGGTGCTGGTATCTCCGGCGGCGAAGAAGGCGCACTCAACGGCCCATCCATCATGCCTGGTGGCCCAGCAAAGTCCTACGAGTCCCTCGGACCACTGCTTGAGTCCATCGCTGCCAACGTTGACGGCACCCCATGTGTCACCCACATCGGCCCAGACGGCGCCGGCCACTTCGTCAAGATGGTCCACAACGGCATCGAGTACGCCGACATGCAGGTCATCGGCGAGGCATACCACCTTCTCCGCTACGCAGCAGGCATGCAGCCAGCTGAAATCGCTGAGGTTTTCAAGGAATGGAACGCAGGCGACCTGGATTCCTACCTCATCGAAATCACCGCAGAGGTTCTCTCCCAGGTGGATGCTGAAACCGGCAAGCCACTAATCGACGTCATCGTTGACGCTGCAGGTCAGAAGGGCACCGGACGTTGGACCGTCAAGGCTGCTCTTGATCTGGGTATTGCTACCACCGGCATCGGCGAAGCTGTTTTCGCACGTGCACTCTCCGGCGCAACCAGCCAGCGCGCTGCAGCACAGGGCAACCTACCTGCAGGTGTCCTCACCGATCTGGAAGCACTTGGCGTGGACAAGGCACAGTTCGTCGAAGACGTTCGCCGTGCACTGTACGCATCCAAGCTTGTTGCTTACGCACAGGGCTTCGACGAGATCAAGGCTGGCTCCGACGAGAACAACTGGGACGTTGACCCTCGCGACCTCGCTACCATCTGGCGCGGCGGCTGCATCATTCGCGCTAAGTTCCTCAACCGCATCGTCGAAGCATACGATGCAAACGCTGAACTTGAGTCCCTGCTGCTCGATCCTTACTTCAAGAGCGAGCTCGGCGACCTCATCGATTCATGGCGTCGCGTGATTGTCACCGCCACCCAGCTTGGCCTGCCAATCCCAGTGTTCGCTTCCTCCCTGTCCTACTACGACAGCCTGCGTGCAGAGCGTCTGCCAGCAGCCCTGATCCAAGGACAGCGCGACTTCTTCGGTGCGCACACCTACAAGCGCATCGACAAGGATGGCTCCTTCCACACCGAGTGGTCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGCGTACTTTGCTTAATTCAGGCTGGAACGTGGCGATGACCCAGCAAAGATAAAACGAGTCACAGGTTATGCATGAGAGGAAATCAGGCGCTTCGCCGCTATTTCGAATTTATTCCATTGCCCGATACACG</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.640175098671591</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>-34.12817302788949</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>-2.004972457472149</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>CGTGAGCGCTATTCATGGCT</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CGTGTATCGGGCAATGGAAT</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>60.87764921789017</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>58.40680358121767</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>1852</v>
       </c>
     </row>
